--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il4-Il4ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il4-Il4ra.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1647103333333333</v>
+        <v>0.589944</v>
       </c>
       <c r="H2">
-        <v>0.494131</v>
+        <v>1.769832</v>
       </c>
       <c r="I2">
-        <v>0.05373200903458847</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="J2">
-        <v>0.05373200903458848</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.811086</v>
+        <v>42.46945466666667</v>
       </c>
       <c r="N2">
-        <v>59.433258</v>
+        <v>127.408364</v>
       </c>
       <c r="O2">
-        <v>0.09441578903081542</v>
+        <v>0.1582406313177058</v>
       </c>
       <c r="P2">
-        <v>0.09441578903081545</v>
+        <v>0.1582406313177058</v>
       </c>
       <c r="Q2">
-        <v>3.263090578755333</v>
+        <v>25.054599963872</v>
       </c>
       <c r="R2">
-        <v>29.367815208798</v>
+        <v>225.491399674848</v>
       </c>
       <c r="S2">
-        <v>0.005073150029211573</v>
+        <v>0.02081448501687793</v>
       </c>
       <c r="T2">
-        <v>0.005073150029211575</v>
+        <v>0.02081448501687793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1647103333333333</v>
+        <v>0.589944</v>
       </c>
       <c r="H3">
-        <v>0.494131</v>
+        <v>1.769832</v>
       </c>
       <c r="I3">
-        <v>0.05373200903458847</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="J3">
-        <v>0.05373200903458848</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>117.039114</v>
       </c>
       <c r="O3">
-        <v>0.1859285636970727</v>
+        <v>0.1453620681309818</v>
       </c>
       <c r="P3">
-        <v>0.1859285636970727</v>
+        <v>0.1453620681309818</v>
       </c>
       <c r="Q3">
-        <v>6.425850493325998</v>
+        <v>23.015507689872</v>
       </c>
       <c r="R3">
-        <v>57.83265443993399</v>
+        <v>207.139569208848</v>
       </c>
       <c r="S3">
-        <v>0.009990315264359166</v>
+        <v>0.01912047850125183</v>
       </c>
       <c r="T3">
-        <v>0.00999031526435917</v>
+        <v>0.01912047850125182</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1647103333333333</v>
+        <v>0.589944</v>
       </c>
       <c r="H4">
-        <v>0.494131</v>
+        <v>1.769832</v>
       </c>
       <c r="I4">
-        <v>0.05373200903458847</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="J4">
-        <v>0.05373200903458848</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.78703966666667</v>
+        <v>53.304602</v>
       </c>
       <c r="N4">
-        <v>122.361119</v>
+        <v>159.913806</v>
       </c>
       <c r="O4">
-        <v>0.1943831111711645</v>
+        <v>0.1986122482340101</v>
       </c>
       <c r="P4">
-        <v>0.1943831111711645</v>
+        <v>0.1986122482340101</v>
       </c>
       <c r="Q4">
-        <v>6.718046899176555</v>
+        <v>31.446730122288</v>
       </c>
       <c r="R4">
-        <v>60.46242209258899</v>
+        <v>283.020571100592</v>
       </c>
       <c r="S4">
-        <v>0.01044459508562042</v>
+        <v>0.02612484309883238</v>
       </c>
       <c r="T4">
-        <v>0.01044459508562043</v>
+        <v>0.02612484309883237</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1647103333333333</v>
+        <v>0.589944</v>
       </c>
       <c r="H5">
-        <v>0.494131</v>
+        <v>1.769832</v>
       </c>
       <c r="I5">
-        <v>0.05373200903458847</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="J5">
-        <v>0.05373200903458848</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.283471000000001</v>
+        <v>4.213367666666667</v>
       </c>
       <c r="N5">
-        <v>21.850413</v>
+        <v>12.640103</v>
       </c>
       <c r="O5">
-        <v>0.03471160850788606</v>
+        <v>0.01569895268917217</v>
       </c>
       <c r="P5">
-        <v>0.03471160850788606</v>
+        <v>0.01569895268917217</v>
       </c>
       <c r="Q5">
-        <v>1.199662936233667</v>
+        <v>2.485650974744</v>
       </c>
       <c r="R5">
-        <v>10.796966426103</v>
+        <v>22.370858772696</v>
       </c>
       <c r="S5">
-        <v>0.001865124461950832</v>
+        <v>0.002064991859602669</v>
       </c>
       <c r="T5">
-        <v>0.001865124461950832</v>
+        <v>0.002064991859602669</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1647103333333333</v>
+        <v>0.589944</v>
       </c>
       <c r="H6">
-        <v>0.494131</v>
+        <v>1.769832</v>
       </c>
       <c r="I6">
-        <v>0.05373200903458847</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="J6">
-        <v>0.05373200903458848</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.471095</v>
+        <v>82.94579299999999</v>
       </c>
       <c r="N6">
-        <v>169.413285</v>
+        <v>248.837379</v>
       </c>
       <c r="O6">
-        <v>0.2691302734165676</v>
+        <v>0.3090549373069669</v>
       </c>
       <c r="P6">
-        <v>0.2691302734165677</v>
+        <v>0.3090549373069669</v>
       </c>
       <c r="Q6">
-        <v>9.301372881148332</v>
+        <v>48.933372905592</v>
       </c>
       <c r="R6">
-        <v>83.71235593033499</v>
+        <v>440.400356150328</v>
       </c>
       <c r="S6">
-        <v>0.01446091028270028</v>
+        <v>0.04065213408465612</v>
       </c>
       <c r="T6">
-        <v>0.01446091028270028</v>
+        <v>0.04065213408465611</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1647103333333333</v>
+        <v>0.589944</v>
       </c>
       <c r="H7">
-        <v>0.494131</v>
+        <v>1.769832</v>
       </c>
       <c r="I7">
-        <v>0.05373200903458847</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="J7">
-        <v>0.05373200903458848</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.46237433333334</v>
+        <v>46.43901533333334</v>
       </c>
       <c r="N7">
-        <v>139.387123</v>
+        <v>139.317046</v>
       </c>
       <c r="O7">
-        <v>0.2214306541764936</v>
+        <v>0.1730311623211633</v>
       </c>
       <c r="P7">
-        <v>0.2214306541764936</v>
+        <v>0.1730311623211633</v>
       </c>
       <c r="Q7">
-        <v>7.652833163901445</v>
+        <v>27.396418461808</v>
       </c>
       <c r="R7">
-        <v>68.87549847511301</v>
+        <v>246.567766156272</v>
       </c>
       <c r="S7">
-        <v>0.01189791391074619</v>
+        <v>0.02275998588728989</v>
       </c>
       <c r="T7">
-        <v>0.01189791391074619</v>
+        <v>0.02275998588728988</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2.034941</v>
       </c>
       <c r="I8">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="J8">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.811086</v>
+        <v>42.46945466666667</v>
       </c>
       <c r="N8">
-        <v>59.433258</v>
+        <v>127.408364</v>
       </c>
       <c r="O8">
-        <v>0.09441578903081542</v>
+        <v>0.1582406313177058</v>
       </c>
       <c r="P8">
-        <v>0.09441578903081545</v>
+        <v>0.1582406313177058</v>
       </c>
       <c r="Q8">
-        <v>13.43813038530866</v>
+        <v>28.80761151628045</v>
       </c>
       <c r="R8">
-        <v>120.943173467778</v>
+        <v>259.268503646524</v>
       </c>
       <c r="S8">
-        <v>0.02089235646740202</v>
+        <v>0.02393235570084086</v>
       </c>
       <c r="T8">
-        <v>0.02089235646740203</v>
+        <v>0.02393235570084086</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2.034941</v>
       </c>
       <c r="I9">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="J9">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>117.039114</v>
       </c>
       <c r="O9">
-        <v>0.1859285636970727</v>
+        <v>0.1453620681309818</v>
       </c>
       <c r="P9">
-        <v>0.1859285636970727</v>
+        <v>0.1453620681309818</v>
       </c>
       <c r="Q9">
         <v>26.46307685358599</v>
@@ -1013,10 +1013,10 @@
         <v>238.167691682274</v>
       </c>
       <c r="S9">
-        <v>0.0411423329731798</v>
+        <v>0.02198459833578322</v>
       </c>
       <c r="T9">
-        <v>0.04114233297317981</v>
+        <v>0.02198459833578322</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2.034941</v>
       </c>
       <c r="I10">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="J10">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.78703966666667</v>
+        <v>53.304602</v>
       </c>
       <c r="N10">
-        <v>122.361119</v>
+        <v>159.913806</v>
       </c>
       <c r="O10">
-        <v>0.1943831111711645</v>
+        <v>0.1986122482340101</v>
       </c>
       <c r="P10">
-        <v>0.1943831111711645</v>
+        <v>0.1986122482340101</v>
       </c>
       <c r="Q10">
-        <v>27.66640642877544</v>
+        <v>36.15724003282732</v>
       </c>
       <c r="R10">
-        <v>248.997657858979</v>
+        <v>325.415160295446</v>
       </c>
       <c r="S10">
-        <v>0.04301315798467919</v>
+        <v>0.03003816991690796</v>
       </c>
       <c r="T10">
-        <v>0.0430131579846792</v>
+        <v>0.03003816991690796</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2.034941</v>
       </c>
       <c r="I11">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="J11">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.283471000000001</v>
+        <v>4.213367666666667</v>
       </c>
       <c r="N11">
-        <v>21.850413</v>
+        <v>12.640103</v>
       </c>
       <c r="O11">
-        <v>0.03471160850788606</v>
+        <v>0.01569895268917217</v>
       </c>
       <c r="P11">
-        <v>0.03471160850788606</v>
+        <v>0.01569895268917217</v>
       </c>
       <c r="Q11">
-        <v>4.940477920070334</v>
+        <v>2.857984870991444</v>
       </c>
       <c r="R11">
-        <v>44.464301280633</v>
+        <v>25.721863838923</v>
       </c>
       <c r="S11">
-        <v>0.007680996006578594</v>
+        <v>0.002374313833048399</v>
       </c>
       <c r="T11">
-        <v>0.007680996006578596</v>
+        <v>0.002374313833048399</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2.034941</v>
       </c>
       <c r="I12">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="J12">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.471095</v>
+        <v>82.94579299999999</v>
       </c>
       <c r="N12">
-        <v>169.413285</v>
+        <v>248.837379</v>
       </c>
       <c r="O12">
-        <v>0.2691302734165676</v>
+        <v>0.3090549373069669</v>
       </c>
       <c r="P12">
-        <v>0.2691302734165677</v>
+        <v>0.3090549373069669</v>
       </c>
       <c r="Q12">
-        <v>38.30511551013166</v>
+        <v>56.26326498440432</v>
       </c>
       <c r="R12">
-        <v>344.746039591185</v>
+        <v>506.369384859639</v>
       </c>
       <c r="S12">
-        <v>0.0595532343277155</v>
+        <v>0.04674155195880976</v>
       </c>
       <c r="T12">
-        <v>0.05955323432771551</v>
+        <v>0.04674155195880976</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2.034941</v>
       </c>
       <c r="I13">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="J13">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>46.46237433333334</v>
+        <v>46.43901533333334</v>
       </c>
       <c r="N13">
-        <v>139.387123</v>
+        <v>139.317046</v>
       </c>
       <c r="O13">
-        <v>0.2214306541764936</v>
+        <v>0.1730311623211633</v>
       </c>
       <c r="P13">
-        <v>0.2214306541764936</v>
+        <v>0.1730311623211633</v>
       </c>
       <c r="Q13">
-        <v>31.51606349608256</v>
+        <v>31.50021876714289</v>
       </c>
       <c r="R13">
-        <v>283.644571464743</v>
+        <v>283.501968904286</v>
       </c>
       <c r="S13">
-        <v>0.04899824708720514</v>
+        <v>0.02616927959346851</v>
       </c>
       <c r="T13">
-        <v>0.04899824708720515</v>
+        <v>0.02616927959346851</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3320596666666666</v>
+        <v>0.3049506666666666</v>
       </c>
       <c r="H14">
-        <v>0.9961789999999999</v>
+        <v>0.914852</v>
       </c>
       <c r="I14">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="J14">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.811086</v>
+        <v>42.46945466666667</v>
       </c>
       <c r="N14">
-        <v>59.433258</v>
+        <v>127.408364</v>
       </c>
       <c r="O14">
-        <v>0.09441578903081542</v>
+        <v>0.1582406313177058</v>
       </c>
       <c r="P14">
-        <v>0.09441578903081545</v>
+        <v>0.1582406313177058</v>
       </c>
       <c r="Q14">
-        <v>6.578462613464666</v>
+        <v>12.95108851356978</v>
       </c>
       <c r="R14">
-        <v>59.206163521182</v>
+        <v>116.559796622128</v>
       </c>
       <c r="S14">
-        <v>0.01022758240820745</v>
+        <v>0.01075931119262213</v>
       </c>
       <c r="T14">
-        <v>0.01022758240820745</v>
+        <v>0.01075931119262213</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3320596666666666</v>
+        <v>0.3049506666666666</v>
       </c>
       <c r="H15">
-        <v>0.9961789999999999</v>
+        <v>0.914852</v>
       </c>
       <c r="I15">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="J15">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>117.039114</v>
       </c>
       <c r="O15">
-        <v>0.1859285636970727</v>
+        <v>0.1453620681309818</v>
       </c>
       <c r="P15">
-        <v>0.1859285636970727</v>
+        <v>0.1453620681309818</v>
       </c>
       <c r="Q15">
-        <v>12.954656393934</v>
+        <v>11.897051946792</v>
       </c>
       <c r="R15">
-        <v>116.591907545406</v>
+        <v>107.073467521128</v>
       </c>
       <c r="S15">
-        <v>0.02014069602946193</v>
+        <v>0.009883654492532191</v>
       </c>
       <c r="T15">
-        <v>0.02014069602946193</v>
+        <v>0.009883654492532191</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3320596666666666</v>
+        <v>0.3049506666666666</v>
       </c>
       <c r="H16">
-        <v>0.9961789999999999</v>
+        <v>0.914852</v>
       </c>
       <c r="I16">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="J16">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>40.78703966666667</v>
+        <v>53.304602</v>
       </c>
       <c r="N16">
-        <v>122.361119</v>
+        <v>159.913806</v>
       </c>
       <c r="O16">
-        <v>0.1943831111711645</v>
+        <v>0.1986122482340101</v>
       </c>
       <c r="P16">
-        <v>0.1943831111711645</v>
+        <v>0.1986122482340101</v>
       </c>
       <c r="Q16">
-        <v>13.54373079603344</v>
+        <v>16.25527391630133</v>
       </c>
       <c r="R16">
-        <v>121.893577164301</v>
+        <v>146.297465246712</v>
       </c>
       <c r="S16">
-        <v>0.02105653417372775</v>
+        <v>0.01350431281537061</v>
       </c>
       <c r="T16">
-        <v>0.02105653417372776</v>
+        <v>0.01350431281537061</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.3320596666666666</v>
+        <v>0.3049506666666666</v>
       </c>
       <c r="H17">
-        <v>0.9961789999999999</v>
+        <v>0.914852</v>
       </c>
       <c r="I17">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="J17">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.283471000000001</v>
+        <v>4.213367666666667</v>
       </c>
       <c r="N17">
-        <v>21.850413</v>
+        <v>12.640103</v>
       </c>
       <c r="O17">
-        <v>0.03471160850788606</v>
+        <v>0.01569895268917217</v>
       </c>
       <c r="P17">
-        <v>0.03471160850788606</v>
+        <v>0.01569895268917217</v>
       </c>
       <c r="Q17">
-        <v>2.418546952436333</v>
+        <v>1.284869278861778</v>
       </c>
       <c r="R17">
-        <v>21.766922571927</v>
+        <v>11.563823509756</v>
       </c>
       <c r="S17">
-        <v>0.003760132073036741</v>
+        <v>0.001067424440704666</v>
       </c>
       <c r="T17">
-        <v>0.003760132073036741</v>
+        <v>0.001067424440704666</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.3320596666666666</v>
+        <v>0.3049506666666666</v>
       </c>
       <c r="H18">
-        <v>0.9961789999999999</v>
+        <v>0.914852</v>
       </c>
       <c r="I18">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="J18">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>56.471095</v>
+        <v>82.94579299999999</v>
       </c>
       <c r="N18">
-        <v>169.413285</v>
+        <v>248.837379</v>
       </c>
       <c r="O18">
-        <v>0.2691302734165676</v>
+        <v>0.3090549373069669</v>
       </c>
       <c r="P18">
-        <v>0.2691302734165677</v>
+        <v>0.3090549373069669</v>
       </c>
       <c r="Q18">
-        <v>18.75177298200166</v>
+        <v>25.29437487254533</v>
       </c>
       <c r="R18">
-        <v>168.765956838015</v>
+        <v>227.649373852908</v>
       </c>
       <c r="S18">
-        <v>0.02915351423915941</v>
+        <v>0.02101368162154137</v>
       </c>
       <c r="T18">
-        <v>0.02915351423915942</v>
+        <v>0.02101368162154137</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.3320596666666666</v>
+        <v>0.3049506666666666</v>
       </c>
       <c r="H19">
-        <v>0.9961789999999999</v>
+        <v>0.914852</v>
       </c>
       <c r="I19">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="J19">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>46.46237433333334</v>
+        <v>46.43901533333334</v>
       </c>
       <c r="N19">
-        <v>139.387123</v>
+        <v>139.317046</v>
       </c>
       <c r="O19">
-        <v>0.2214306541764936</v>
+        <v>0.1730311623211633</v>
       </c>
       <c r="P19">
-        <v>0.2214306541764936</v>
+        <v>0.1730311623211633</v>
       </c>
       <c r="Q19">
-        <v>15.42828053366856</v>
+        <v>14.16160868524356</v>
       </c>
       <c r="R19">
-        <v>138.854524803017</v>
+        <v>127.454478167192</v>
       </c>
       <c r="S19">
-        <v>0.02398645699560082</v>
+        <v>0.01176496899646911</v>
       </c>
       <c r="T19">
-        <v>0.02398645699560082</v>
+        <v>0.01176496899646911</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>1.362438</v>
+        <v>0.4130943333333333</v>
       </c>
       <c r="H20">
-        <v>4.087314</v>
+        <v>1.239283</v>
       </c>
       <c r="I20">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="J20">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.811086</v>
+        <v>42.46945466666667</v>
       </c>
       <c r="N20">
-        <v>59.433258</v>
+        <v>127.408364</v>
       </c>
       <c r="O20">
-        <v>0.09441578903081542</v>
+        <v>0.1582406313177058</v>
       </c>
       <c r="P20">
-        <v>0.09441578903081545</v>
+        <v>0.1582406313177058</v>
       </c>
       <c r="Q20">
-        <v>26.991376387668</v>
+        <v>17.54389106255689</v>
       </c>
       <c r="R20">
-        <v>242.922387489012</v>
+        <v>157.895019563012</v>
       </c>
       <c r="S20">
-        <v>0.0419636839997832</v>
+        <v>0.01457485085317224</v>
       </c>
       <c r="T20">
-        <v>0.04196368399978322</v>
+        <v>0.01457485085317224</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>1.362438</v>
+        <v>0.4130943333333333</v>
       </c>
       <c r="H21">
-        <v>4.087314</v>
+        <v>1.239283</v>
       </c>
       <c r="I21">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="J21">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>117.039114</v>
       </c>
       <c r="O21">
-        <v>0.1859285636970727</v>
+        <v>0.1453620681309818</v>
       </c>
       <c r="P21">
-        <v>0.1859285636970727</v>
+        <v>0.1453620681309818</v>
       </c>
       <c r="Q21">
-        <v>53.152845466644</v>
+        <v>16.116064923918</v>
       </c>
       <c r="R21">
-        <v>478.375609199796</v>
+        <v>145.044584315262</v>
       </c>
       <c r="S21">
-        <v>0.08263710523004815</v>
+        <v>0.01338866285526924</v>
       </c>
       <c r="T21">
-        <v>0.08263710523004818</v>
+        <v>0.01338866285526924</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>1.362438</v>
+        <v>0.4130943333333333</v>
       </c>
       <c r="H22">
-        <v>4.087314</v>
+        <v>1.239283</v>
       </c>
       <c r="I22">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="J22">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>40.78703966666667</v>
+        <v>53.304602</v>
       </c>
       <c r="N22">
-        <v>122.361119</v>
+        <v>159.913806</v>
       </c>
       <c r="O22">
-        <v>0.1943831111711645</v>
+        <v>0.1986122482340101</v>
       </c>
       <c r="P22">
-        <v>0.1943831111711645</v>
+        <v>0.1986122482340101</v>
       </c>
       <c r="Q22">
-        <v>55.569812749374</v>
+        <v>22.01982902678866</v>
       </c>
       <c r="R22">
-        <v>500.128314744366</v>
+        <v>198.178461241098</v>
       </c>
       <c r="S22">
-        <v>0.08639478137940659</v>
+        <v>0.01829330350567188</v>
       </c>
       <c r="T22">
-        <v>0.08639478137940661</v>
+        <v>0.01829330350567188</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>1.362438</v>
+        <v>0.4130943333333333</v>
       </c>
       <c r="H23">
-        <v>4.087314</v>
+        <v>1.239283</v>
       </c>
       <c r="I23">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="J23">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.283471000000001</v>
+        <v>4.213367666666667</v>
       </c>
       <c r="N23">
-        <v>21.850413</v>
+        <v>12.640103</v>
       </c>
       <c r="O23">
-        <v>0.03471160850788606</v>
+        <v>0.01569895268917217</v>
       </c>
       <c r="P23">
-        <v>0.03471160850788606</v>
+        <v>0.01569895268917217</v>
       </c>
       <c r="Q23">
-        <v>9.923277662298002</v>
+        <v>1.740518307349889</v>
       </c>
       <c r="R23">
-        <v>89.30949896068202</v>
+        <v>15.664664766149</v>
       </c>
       <c r="S23">
-        <v>0.0154277900497522</v>
+        <v>0.001445961710910399</v>
       </c>
       <c r="T23">
-        <v>0.0154277900497522</v>
+        <v>0.001445961710910399</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>1.362438</v>
+        <v>0.4130943333333333</v>
       </c>
       <c r="H24">
-        <v>4.087314</v>
+        <v>1.239283</v>
       </c>
       <c r="I24">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="J24">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>56.471095</v>
+        <v>82.94579299999999</v>
       </c>
       <c r="N24">
-        <v>169.413285</v>
+        <v>248.837379</v>
       </c>
       <c r="O24">
-        <v>0.2691302734165676</v>
+        <v>0.3090549373069669</v>
       </c>
       <c r="P24">
-        <v>0.2691302734165677</v>
+        <v>0.3090549373069669</v>
       </c>
       <c r="Q24">
-        <v>76.93836572961</v>
+        <v>34.26443706213966</v>
       </c>
       <c r="R24">
-        <v>692.44529156649</v>
+        <v>308.379933559257</v>
       </c>
       <c r="S24">
-        <v>0.119616622011622</v>
+        <v>0.02846569543597069</v>
       </c>
       <c r="T24">
-        <v>0.1196166220116221</v>
+        <v>0.02846569543597069</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>1.362438</v>
+        <v>0.4130943333333333</v>
       </c>
       <c r="H25">
-        <v>4.087314</v>
+        <v>1.239283</v>
       </c>
       <c r="I25">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="J25">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>46.46237433333334</v>
+        <v>46.43901533333334</v>
       </c>
       <c r="N25">
-        <v>139.387123</v>
+        <v>139.317046</v>
       </c>
       <c r="O25">
-        <v>0.2214306541764936</v>
+        <v>0.1730311623211633</v>
       </c>
       <c r="P25">
-        <v>0.2214306541764936</v>
+        <v>0.1730311623211633</v>
       </c>
       <c r="Q25">
-        <v>63.30210436195801</v>
+        <v>19.18369407977978</v>
       </c>
       <c r="R25">
-        <v>569.7189392576221</v>
+        <v>172.653246718018</v>
       </c>
       <c r="S25">
-        <v>0.09841622990297645</v>
+        <v>0.0159371418249632</v>
       </c>
       <c r="T25">
-        <v>0.09841622990297645</v>
+        <v>0.0159371418249632</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.2558096666666667</v>
+        <v>0.8655823333333333</v>
       </c>
       <c r="H26">
-        <v>0.767429</v>
+        <v>2.596747</v>
       </c>
       <c r="I26">
-        <v>0.08345054643688657</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="J26">
-        <v>0.08345054643688658</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.811086</v>
+        <v>42.46945466666667</v>
       </c>
       <c r="N26">
-        <v>59.433258</v>
+        <v>127.408364</v>
       </c>
       <c r="O26">
-        <v>0.09441578903081542</v>
+        <v>0.1582406313177058</v>
       </c>
       <c r="P26">
-        <v>0.09441578903081545</v>
+        <v>0.1582406313177058</v>
       </c>
       <c r="Q26">
-        <v>5.067867305964667</v>
+        <v>36.76080966576756</v>
       </c>
       <c r="R26">
-        <v>45.610805753682</v>
+        <v>330.847286991908</v>
       </c>
       <c r="S26">
-        <v>0.007879049186891347</v>
+        <v>0.03053959444971201</v>
       </c>
       <c r="T26">
-        <v>0.007879049186891352</v>
+        <v>0.03053959444971201</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.2558096666666667</v>
+        <v>0.8655823333333333</v>
       </c>
       <c r="H27">
-        <v>0.767429</v>
+        <v>2.596747</v>
       </c>
       <c r="I27">
-        <v>0.08345054643688657</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="J27">
-        <v>0.08345054643688658</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>117.039114</v>
       </c>
       <c r="O27">
-        <v>0.1859285636970727</v>
+        <v>0.1453620681309818</v>
       </c>
       <c r="P27">
-        <v>0.1859285636970727</v>
+        <v>0.1453620681309818</v>
       </c>
       <c r="Q27">
-        <v>9.979912246433999</v>
+        <v>33.768996462462</v>
       </c>
       <c r="R27">
-        <v>89.81921021790599</v>
+        <v>303.920968162158</v>
       </c>
       <c r="S27">
-        <v>0.01551584023874619</v>
+        <v>0.02805410072068432</v>
       </c>
       <c r="T27">
-        <v>0.01551584023874619</v>
+        <v>0.02805410072068432</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.2558096666666667</v>
+        <v>0.8655823333333333</v>
       </c>
       <c r="H28">
-        <v>0.767429</v>
+        <v>2.596747</v>
       </c>
       <c r="I28">
-        <v>0.08345054643688657</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="J28">
-        <v>0.08345054643688658</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>40.78703966666667</v>
+        <v>53.304602</v>
       </c>
       <c r="N28">
-        <v>122.361119</v>
+        <v>159.913806</v>
       </c>
       <c r="O28">
-        <v>0.1943831111711645</v>
+        <v>0.1986122482340101</v>
       </c>
       <c r="P28">
-        <v>0.1943831111711645</v>
+        <v>0.1986122482340101</v>
       </c>
       <c r="Q28">
-        <v>10.43371902145011</v>
+        <v>46.13952177656466</v>
       </c>
       <c r="R28">
-        <v>93.90347119305099</v>
+        <v>415.255695989082</v>
       </c>
       <c r="S28">
-        <v>0.01622137684533575</v>
+        <v>0.03833110032046187</v>
       </c>
       <c r="T28">
-        <v>0.01622137684533575</v>
+        <v>0.03833110032046187</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.2558096666666667</v>
+        <v>0.8655823333333333</v>
       </c>
       <c r="H29">
-        <v>0.767429</v>
+        <v>2.596747</v>
       </c>
       <c r="I29">
-        <v>0.08345054643688657</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="J29">
-        <v>0.08345054643688658</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.283471000000001</v>
+        <v>4.213367666666667</v>
       </c>
       <c r="N29">
-        <v>21.850413</v>
+        <v>12.640103</v>
       </c>
       <c r="O29">
-        <v>0.03471160850788606</v>
+        <v>0.01569895268917217</v>
       </c>
       <c r="P29">
-        <v>0.03471160850788606</v>
+        <v>0.01569895268917217</v>
       </c>
       <c r="Q29">
-        <v>1.863182288686334</v>
+        <v>3.647016616104556</v>
       </c>
       <c r="R29">
-        <v>16.768640598177</v>
+        <v>32.823149544941</v>
       </c>
       <c r="S29">
-        <v>0.002896702697686372</v>
+        <v>0.003029813799528798</v>
       </c>
       <c r="T29">
-        <v>0.002896702697686373</v>
+        <v>0.003029813799528798</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.2558096666666667</v>
+        <v>0.8655823333333333</v>
       </c>
       <c r="H30">
-        <v>0.767429</v>
+        <v>2.596747</v>
       </c>
       <c r="I30">
-        <v>0.08345054643688657</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="J30">
-        <v>0.08345054643688658</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>56.471095</v>
+        <v>82.94579299999999</v>
       </c>
       <c r="N30">
-        <v>169.413285</v>
+        <v>248.837379</v>
       </c>
       <c r="O30">
-        <v>0.2691302734165676</v>
+        <v>0.3090549373069669</v>
       </c>
       <c r="P30">
-        <v>0.2691302734165677</v>
+        <v>0.3090549373069669</v>
       </c>
       <c r="Q30">
-        <v>14.44585198825167</v>
+        <v>71.79641304512366</v>
       </c>
       <c r="R30">
-        <v>130.012667894265</v>
+        <v>646.1677174061131</v>
       </c>
       <c r="S30">
-        <v>0.02245906837932126</v>
+        <v>0.05964594787975838</v>
       </c>
       <c r="T30">
-        <v>0.02245906837932126</v>
+        <v>0.05964594787975838</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.2558096666666667</v>
+        <v>0.8655823333333333</v>
       </c>
       <c r="H31">
-        <v>0.767429</v>
+        <v>2.596747</v>
       </c>
       <c r="I31">
-        <v>0.08345054643688657</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="J31">
-        <v>0.08345054643688658</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>46.46237433333334</v>
+        <v>46.43901533333334</v>
       </c>
       <c r="N31">
-        <v>139.387123</v>
+        <v>139.317046</v>
       </c>
       <c r="O31">
-        <v>0.2214306541764936</v>
+        <v>0.1730311623211633</v>
       </c>
       <c r="P31">
-        <v>0.2214306541764936</v>
+        <v>0.1730311623211633</v>
       </c>
       <c r="Q31">
-        <v>11.88552449075189</v>
+        <v>40.19679124992911</v>
       </c>
       <c r="R31">
-        <v>106.969720416767</v>
+        <v>361.771121249362</v>
       </c>
       <c r="S31">
-        <v>0.01847850908890565</v>
+        <v>0.033394087728588</v>
       </c>
       <c r="T31">
-        <v>0.01847850908890565</v>
+        <v>0.03339408772858799</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.272073</v>
+        <v>1.633122</v>
       </c>
       <c r="H32">
-        <v>0.816219</v>
+        <v>4.899366000000001</v>
       </c>
       <c r="I32">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="J32">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>19.811086</v>
+        <v>42.46945466666667</v>
       </c>
       <c r="N32">
-        <v>59.433258</v>
+        <v>127.408364</v>
       </c>
       <c r="O32">
-        <v>0.09441578903081542</v>
+        <v>0.1582406313177058</v>
       </c>
       <c r="P32">
-        <v>0.09441578903081545</v>
+        <v>0.1582406313177058</v>
       </c>
       <c r="Q32">
-        <v>5.390061601278</v>
+        <v>69.35780074413601</v>
       </c>
       <c r="R32">
-        <v>48.51055441150201</v>
+        <v>624.2202066972241</v>
       </c>
       <c r="S32">
-        <v>0.008379966939319819</v>
+        <v>0.05762003410448063</v>
       </c>
       <c r="T32">
-        <v>0.008379966939319821</v>
+        <v>0.05762003410448062</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.272073</v>
+        <v>1.633122</v>
       </c>
       <c r="H33">
-        <v>0.816219</v>
+        <v>4.899366000000001</v>
       </c>
       <c r="I33">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="J33">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>117.039114</v>
       </c>
       <c r="O33">
-        <v>0.1859285636970727</v>
+        <v>0.1453620681309818</v>
       </c>
       <c r="P33">
-        <v>0.1859285636970727</v>
+        <v>0.1453620681309818</v>
       </c>
       <c r="Q33">
-        <v>10.614394287774</v>
+        <v>63.713050644636</v>
       </c>
       <c r="R33">
-        <v>95.52954858996598</v>
+        <v>573.417455801724</v>
       </c>
       <c r="S33">
-        <v>0.01650227396127742</v>
+        <v>0.05293057322546104</v>
       </c>
       <c r="T33">
-        <v>0.01650227396127743</v>
+        <v>0.05293057322546103</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.272073</v>
+        <v>1.633122</v>
       </c>
       <c r="H34">
-        <v>0.816219</v>
+        <v>4.899366000000001</v>
       </c>
       <c r="I34">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="J34">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>40.78703966666667</v>
+        <v>53.304602</v>
       </c>
       <c r="N34">
-        <v>122.361119</v>
+        <v>159.913806</v>
       </c>
       <c r="O34">
-        <v>0.1943831111711645</v>
+        <v>0.1986122482340101</v>
       </c>
       <c r="P34">
-        <v>0.1943831111711645</v>
+        <v>0.1986122482340101</v>
       </c>
       <c r="Q34">
-        <v>11.097052243229</v>
+        <v>87.052918227444</v>
       </c>
       <c r="R34">
-        <v>99.873470189061</v>
+        <v>783.4762640469961</v>
       </c>
       <c r="S34">
-        <v>0.01725266570239474</v>
+        <v>0.07232051857676547</v>
       </c>
       <c r="T34">
-        <v>0.01725266570239475</v>
+        <v>0.07232051857676547</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.272073</v>
+        <v>1.633122</v>
       </c>
       <c r="H35">
-        <v>0.816219</v>
+        <v>4.899366000000001</v>
       </c>
       <c r="I35">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="J35">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>7.283471000000001</v>
+        <v>4.213367666666667</v>
       </c>
       <c r="N35">
-        <v>21.850413</v>
+        <v>12.640103</v>
       </c>
       <c r="O35">
-        <v>0.03471160850788606</v>
+        <v>0.01569895268917217</v>
       </c>
       <c r="P35">
-        <v>0.03471160850788606</v>
+        <v>0.01569895268917217</v>
       </c>
       <c r="Q35">
-        <v>1.981635805383001</v>
+        <v>6.880943430522001</v>
       </c>
       <c r="R35">
-        <v>17.834722248447</v>
+        <v>61.92849087469801</v>
       </c>
       <c r="S35">
-        <v>0.003080863218881321</v>
+        <v>0.00571644704537724</v>
       </c>
       <c r="T35">
-        <v>0.003080863218881322</v>
+        <v>0.005716447045377239</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.272073</v>
+        <v>1.633122</v>
       </c>
       <c r="H36">
-        <v>0.816219</v>
+        <v>4.899366000000001</v>
       </c>
       <c r="I36">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="J36">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>56.471095</v>
+        <v>82.94579299999999</v>
       </c>
       <c r="N36">
-        <v>169.413285</v>
+        <v>248.837379</v>
       </c>
       <c r="O36">
-        <v>0.2691302734165676</v>
+        <v>0.3090549373069669</v>
       </c>
       <c r="P36">
-        <v>0.2691302734165677</v>
+        <v>0.3090549373069669</v>
       </c>
       <c r="Q36">
-        <v>15.364260229935</v>
+        <v>135.460599355746</v>
       </c>
       <c r="R36">
-        <v>138.278342069415</v>
+        <v>1219.145394201714</v>
       </c>
       <c r="S36">
-        <v>0.02388692417604914</v>
+        <v>0.1125359263262306</v>
       </c>
       <c r="T36">
-        <v>0.02388692417604915</v>
+        <v>0.1125359263262306</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.272073</v>
+        <v>1.633122</v>
       </c>
       <c r="H37">
-        <v>0.816219</v>
+        <v>4.899366000000001</v>
       </c>
       <c r="I37">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="J37">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>46.46237433333334</v>
+        <v>46.43901533333334</v>
       </c>
       <c r="N37">
-        <v>139.387123</v>
+        <v>139.317046</v>
       </c>
       <c r="O37">
-        <v>0.2214306541764936</v>
+        <v>0.1730311623211633</v>
       </c>
       <c r="P37">
-        <v>0.2214306541764936</v>
+        <v>0.1730311623211633</v>
       </c>
       <c r="Q37">
-        <v>12.641157571993</v>
+        <v>75.84057759920401</v>
       </c>
       <c r="R37">
-        <v>113.770418147937</v>
+        <v>682.5651983928361</v>
       </c>
       <c r="S37">
-        <v>0.01965329719105935</v>
+        <v>0.06300569829038459</v>
       </c>
       <c r="T37">
-        <v>0.01965329719105935</v>
+        <v>0.06300569829038456</v>
       </c>
     </row>
   </sheetData>
